--- a/biology/Botanique/Flora_Antarctica/Flora_Antarctica.xlsx
+++ b/biology/Botanique/Flora_Antarctica/Flora_Antarctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flora Antarctica est un recueil des découvertes botaniques de l'expédition Erebus et Terror. Édité en quatre parties de 1843-1859 par Joseph Dalton Hooker, il totalise six volumes (les parties III et IV étant chacune en deux volumes) et couvre environ 3 000 espèces et contient 530 plaques représentant 1 095 des espèces décrites.
-Il est illustré par Walter Hood Fitch[1].
+Il est illustré par Walter Hood Fitch.
 Les parties sont :
 Partie I : Flora of Lord Auckland and Campbell's Islands (en) (1843-1845) sur les îles Campbell et les îles Auckland ;
 Partie II : Flora of Fuegia, the Falkland Islands, etc (en) (1845-1847) sur les îles Kerguelen et les îles Malouines ;
 Partie III : Flora Novae-Zelandiae (en) (1851-1853 en 2 volumes) sur la Nouvelle-Zélande ;
 Partie IV : Flora Tasmaniae (en) (1853-1859 en 2 volumes) sur la Tasmanie.
-Hooker donne à Charles Darwin une copie de la première partie de son livre. Darwin le remercie et accepte en novembre 1845 que la distribution géographique des organismes soit « la clé qui ouvrira le mystère des espèces »[2].
+Hooker donne à Charles Darwin une copie de la première partie de son livre. Darwin le remercie et accepte en novembre 1845 que la distribution géographique des organismes soit « la clé qui ouvrira le mystère des espèces ».
 			Durvillaea antarctica.
 			Misodendrum brachystachyum.
 			Myriogramme smithii.
